--- a/biology/Biochimie/Inhibiteur_de_la_phosphodiestérase/Inhibiteur_de_la_phosphodiestérase.xlsx
+++ b/biology/Biochimie/Inhibiteur_de_la_phosphodiestérase/Inhibiteur_de_la_phosphodiestérase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un inhibiteur de la phosphodiestérase est une substance qui bloque l'action d'un ou plusieurs
 des cinq sous-types de l'enzyme phosphodiestérase (PDE). Elle empêche ainsi la désactivation des messagers secondaires intracellulaires, l'adénosine monophosphate cyclique (AMPc) et la guanosine monophosphate cyclique (GMPc), par les différents sous-types de PDE.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les différents sous-types de la phosphodiestérase sont isolés pour la première fois par Uzunov et Weiss en 1972[1]. Peu après, Weiss découvre que ces sous-types sont inhibés par différentes substances, présentes dans le cerveau et d'autres tissus[2],[3]. Il prédit dès 1977, conjointement avec Hait, l'utilisation potentielle de ces substances comme agents thérapeutiques[4], prédiction aujourd'hui réalisée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différents sous-types de la phosphodiestérase sont isolés pour la première fois par Uzunov et Weiss en 1972. Peu après, Weiss découvre que ces sous-types sont inhibés par différentes substances, présentes dans le cerveau et d'autres tissus,. Il prédit dès 1977, conjointement avec Hait, l'utilisation potentielle de ces substances comme agents thérapeutiques, prédiction aujourd'hui réalisée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,26 +559,201 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inhibiteurs non sélectifs
-Ces inhibiteurs agissent sur tous les sous-types de phosphodiestérase.
-la caféine[5]
+          <t>Inhibiteurs non sélectifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ces inhibiteurs agissent sur tous les sous-types de phosphodiestérase.
+la caféine
 le bronchodilatateur théophylline
-la 3-isobutyl-1-méthylxanthine (IBMX), utilisée en recherche pharmacologique.
-Inhibiteur de la PDE-1
-Vinpocétine
-Nimodipine
-Inhibiteur de la PDE-2
-EHNA
-Inhibiteur de la PDE-3
-L'amrinone, l'enoximone et milrinone, utilisés pour le traitement à court terme des insuffisances cardiaques. Ces substances stimulent le système nerveux orthosympathique et augmentent le débit cardiaque.
-cilostazol
-Inhibiteur de la PDE-4
-mésembrine : un alcaloïde présent dans une herbe, la sceletium tortuosum.
+la 3-isobutyl-1-méthylxanthine (IBMX), utilisée en recherche pharmacologique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des inhibiteurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la PDE-1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vinpocétine
+Nimodipine</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des inhibiteurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la PDE-2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EHNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des inhibiteurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la PDE-3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'amrinone, l'enoximone et milrinone, utilisés pour le traitement à court terme des insuffisances cardiaques. Ces substances stimulent le système nerveux orthosympathique et augmentent le débit cardiaque.
+cilostazol</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des inhibiteurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la PDE-4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>mésembrine : un alcaloïde présent dans une herbe, la sceletium tortuosum.
 rolipram : utilisé dans la recherche pharmacologique.
 Apremilast
-Roflumilast
-Inhibiteur de la PDE-5
-sildenafil, sulfoaildénafil, tadalafil et vardénafil, ainsi que les plus récents  udénafil, mirodénafil et avanafil. Ils inhibent la PDE-5, qui est responsable de la dégradation du GMPc dans les corps caverneux. Ces inhibiteurs sont généralement utilisés dans les médicaments contre l'impuissance.
+Roflumilast</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Inhibiteur_de_la_phosphodiestérase</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inhibiteur_de_la_phosphodiest%C3%A9rase</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des inhibiteurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la PDE-5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sildenafil, sulfoaildénafil, tadalafil et vardénafil, ainsi que les plus récents  udénafil, mirodénafil et avanafil. Ils inhibent la PDE-5, qui est responsable de la dégradation du GMPc dans les corps caverneux. Ces inhibiteurs sont généralement utilisés dans les médicaments contre l'impuissance.
 DMPPO</t>
         </is>
       </c>
